--- a/biology/Zoologie/Jonaspyge_tzotzili/Jonaspyge_tzotzili.xlsx
+++ b/biology/Zoologie/Jonaspyge_tzotzili/Jonaspyge_tzotzili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonaspyge tzotzili est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Jonaspyge tzotzili a été décrite en 1969 par l'entomologiste américain Freeman (d) (1912-2002) sous le nom initial de Pyrrhopyge tzotzili[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Jonaspyge tzotzili a été décrite en 1969 par l'entomologiste américain Freeman (d) (1912-2002) sous le nom initial de Pyrrhopyge tzotzili.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonaspyge tzotzili se nomme Freeman's Firetip en anglais[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonaspyge tzotzili se nomme Freeman's Firetip en anglais.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonaspyge tzotzili est un papillon au corps trapu gris à tête et extrémité de l'abdomen jaune orangé. 
 Les ailes sont de couleur violine avec une frange blanche.
@@ -602,12 +620,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonaspyge tzotzili est présent au Mexique,.
+</t>
         </is>
       </c>
     </row>
@@ -637,12 +658,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonaspyge tzotzili est présent au Mexique[1],[2].
-Biotope
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Jonaspyge tzotzili, sur Wikimedia CommonsJonaspyge tzotzili, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jonaspyge_tzotzili</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonaspyge_tzotzili</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
